--- a/FI.xlsx
+++ b/FI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C9A20-8FFC-499C-BB12-B939927897BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C98563-D505-4DCA-8B04-9C3E745C327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{8871E1AF-CC88-4971-9D46-707769305EE3}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{8871E1AF-CC88-4971-9D46-707769305EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA5816-0707-4292-AC7B-65F6048AB1A0}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="3">
-        <v>208</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -645,7 +645,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>116748.10035200001</v>
+        <v>35080.559000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -677,7 +677,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>140352.10035200001</v>
+        <v>58684.559000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -699,11 +699,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3DFE3C-6A23-421C-BD95-2A972B5870D4}">
   <dimension ref="A1:U279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/FI.xlsx
+++ b/FI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C98563-D505-4DCA-8B04-9C3E745C327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD7CDA5-9EFE-4B4F-BA2D-A3C8BBE24CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{8871E1AF-CC88-4971-9D46-707769305EE3}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{8871E1AF-CC88-4971-9D46-707769305EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Fiserv</t>
   </si>
@@ -179,21 +179,55 @@
   <si>
     <t>Coporate &amp; other</t>
   </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Services Growth</t>
+  </si>
+  <si>
+    <t>Product Growth</t>
+  </si>
+  <si>
+    <t>Services GM</t>
+  </si>
+  <si>
+    <t>Product GM</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,6 +264,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,27 +289,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,7 +654,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -633,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="4">
-        <v>561.28894400000001</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>8</v>
+        <v>537.85188700000003</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -645,7 +696,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>35080.559000000001</v>
+        <v>33615.742937499999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -653,10 +704,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="4">
-        <v>1236</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>8</v>
+        <v>1068</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -664,11 +715,11 @@
         <v>6</v>
       </c>
       <c r="I6" s="4">
-        <f>1110+23730</f>
-        <v>24840</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>8</v>
+        <f>1323+28876</f>
+        <v>30199</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -677,7 +728,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>58684.559000000001</v>
+        <v>62746.742937499999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -697,13 +748,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3DFE3C-6A23-421C-BD95-2A972B5870D4}">
-  <dimension ref="A1:U279"/>
+  <dimension ref="A1:AE279"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -713,12 +764,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
@@ -763,730 +814,1316 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4">
+      <c r="C3" s="12">
+        <v>2253</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2410</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2469</v>
+      </c>
+      <c r="F3" s="12">
+        <f>+Q3-SUM(C3:E3)</f>
+        <v>2499</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2372</v>
+      </c>
+      <c r="H3" s="12">
+        <v>2644</v>
+      </c>
+      <c r="I3" s="12">
+        <v>2586</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12">
         <v>7883</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="12">
         <v>8722</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="12">
         <v>9631</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4">
+      <c r="C4" s="12">
+        <v>920</v>
+      </c>
+      <c r="D4" s="12">
+        <v>987</v>
+      </c>
+      <c r="E4" s="12">
+        <v>987</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F9" si="0">+Q4-SUM(C4:E4)</f>
+        <v>975</v>
+      </c>
+      <c r="G4" s="12">
+        <v>995</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1051</v>
+      </c>
+      <c r="I4" s="12">
+        <v>939</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
         <v>3370</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="12">
         <v>3655</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="12">
         <v>3869</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4">
+      <c r="C5" s="12">
+        <v>761</v>
+      </c>
+      <c r="D5" s="12">
+        <v>766</v>
+      </c>
+      <c r="E5" s="12">
+        <v>789</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>796</v>
+      </c>
+      <c r="G5" s="12">
+        <v>814</v>
+      </c>
+      <c r="H5" s="12">
+        <v>876</v>
+      </c>
+      <c r="I5" s="12">
+        <v>802</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
         <v>2801</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="12">
         <v>3011</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="12">
         <v>3112</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
+      <c r="C6" s="12">
+        <v>604</v>
+      </c>
+      <c r="D6" s="12">
+        <v>626</v>
+      </c>
+      <c r="E6" s="12">
+        <v>636</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="G6" s="12">
+        <v>608</v>
+      </c>
+      <c r="H6" s="12">
+        <v>625</v>
+      </c>
+      <c r="I6" s="12">
+        <v>592</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
         <v>2510</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="12">
         <v>2435</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="12">
         <v>2496</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4">
+      <c r="C7" s="12">
+        <v>345</v>
+      </c>
+      <c r="D7" s="12">
+        <v>318</v>
+      </c>
+      <c r="E7" s="12">
+        <v>334</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="G7" s="12">
+        <v>341</v>
+      </c>
+      <c r="H7" s="12">
+        <v>320</v>
+      </c>
+      <c r="I7" s="12">
+        <v>344</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
         <v>1173</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="12">
         <v>1270</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="12">
         <v>1348</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4">
+      <c r="C8" s="12">
+        <v>4000</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4140</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4237</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>4260</v>
+      </c>
+      <c r="G8" s="12">
+        <v>4045</v>
+      </c>
+      <c r="H8" s="12">
+        <v>4304</v>
+      </c>
+      <c r="I8" s="12">
+        <v>4273</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
         <v>14460</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="12">
         <v>15630</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="12">
         <v>16637</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4">
+      <c r="C9" s="12">
+        <v>883</v>
+      </c>
+      <c r="D9" s="12">
+        <v>967</v>
+      </c>
+      <c r="E9" s="12">
+        <v>978</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>991</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1085</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1212</v>
+      </c>
+      <c r="I9" s="12">
+        <v>990</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12">
         <v>3277</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="12">
         <v>3463</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="12">
         <v>3819</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="8">
-        <f t="shared" ref="O10:P10" si="0">+O8+O9</f>
+      <c r="C10" s="13">
+        <f t="shared" ref="C10:H10" si="1">+C8+C9</f>
+        <v>4883</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="1"/>
+        <v>5107</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>5215</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="1"/>
+        <v>5251</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="1"/>
+        <v>5130</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="1"/>
+        <v>5516</v>
+      </c>
+      <c r="I10" s="13">
+        <f>+I8+I9</f>
+        <v>5263</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13">
+        <f t="shared" ref="O10:P10" si="2">+O8+O9</f>
         <v>17737</v>
       </c>
-      <c r="P10" s="8">
-        <f t="shared" si="0"/>
+      <c r="P10" s="13">
+        <f t="shared" si="2"/>
         <v>19093</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="13">
         <f>+Q8+Q9</f>
         <v>20456</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4">
+      <c r="C11" s="12">
+        <v>1354</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1343</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1346</v>
+      </c>
+      <c r="F11" s="12">
+        <f>+Q11-SUM(C11:E11)</f>
+        <v>1320</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1389</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1412</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1486</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
         <v>5771</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="12">
         <v>5332</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="12">
         <v>5363</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4">
+      <c r="C12" s="12">
+        <v>651</v>
+      </c>
+      <c r="D12" s="12">
+        <v>639</v>
+      </c>
+      <c r="E12" s="12">
+        <v>661</v>
+      </c>
+      <c r="F12" s="12">
+        <f>+Q12-SUM(C12:E12)</f>
+        <v>699</v>
+      </c>
+      <c r="G12" s="12">
+        <v>684</v>
+      </c>
+      <c r="H12" s="12">
+        <v>694</v>
+      </c>
+      <c r="I12" s="12">
+        <v>679</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
         <v>2221</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="12">
         <v>2338</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="12">
         <v>2650</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4">
-        <f t="shared" ref="L13:P13" si="1">+L10-SUM(L11:L12)</f>
+      <c r="C13" s="12">
+        <f t="shared" ref="C13:H13" si="3">+C10-C11-C12</f>
+        <v>2878</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="3"/>
+        <v>3125</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="3"/>
+        <v>3208</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>3232</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="3"/>
+        <v>3057</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="3"/>
+        <v>3410</v>
+      </c>
+      <c r="I13" s="12">
+        <f>+I10-I11-I12</f>
+        <v>3098</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12">
+        <f t="shared" ref="L13:P13" si="4">+L10-SUM(L11:L12)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" si="1"/>
+      <c r="M13" s="12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N13" s="4">
-        <f t="shared" si="1"/>
+      <c r="N13" s="12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="4">
-        <f t="shared" si="1"/>
+      <c r="O13" s="12">
+        <f t="shared" si="4"/>
         <v>9745</v>
       </c>
-      <c r="P13" s="4">
-        <f t="shared" si="1"/>
+      <c r="P13" s="12">
+        <f t="shared" si="4"/>
         <v>11423</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="12">
         <f>+Q10-SUM(Q11:Q12)</f>
         <v>12443</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4">
+      <c r="C14" s="12">
+        <v>1697</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1697</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1606</v>
+      </c>
+      <c r="F14" s="12">
+        <f>+Q14-SUM(C14:E14)</f>
+        <v>1564</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1682</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1711</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1762</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
         <v>6059</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="12">
         <v>6576</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="12">
         <v>6564</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4">
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <f>+Q15-SUM(C15:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12">
+        <v>-3</v>
+      </c>
+      <c r="I15" s="12">
+        <v>100</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
         <v>54</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="12">
         <v>167</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="12">
         <v>0</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4">
-        <f t="shared" ref="L16:P16" si="2">+L13-L14+L15</f>
+      <c r="C16" s="12">
+        <f t="shared" ref="C16:I16" si="5">+C13-C14+C15</f>
+        <v>1181</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="5"/>
+        <v>1428</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="5"/>
+        <v>1602</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="5"/>
+        <v>1668</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="5"/>
+        <v>1395</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="5"/>
+        <v>1696</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" ref="I16" si="6">+I13-I14+I15</f>
+        <v>1436</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12">
+        <f t="shared" ref="L16:P16" si="7">+L13-L14+L15</f>
         <v>0</v>
       </c>
-      <c r="M16" s="4">
-        <f t="shared" si="2"/>
+      <c r="M16" s="12">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N16" s="4">
-        <f t="shared" si="2"/>
+      <c r="N16" s="12">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O16" s="4">
-        <f t="shared" si="2"/>
+      <c r="O16" s="12">
+        <f t="shared" si="7"/>
         <v>3740</v>
       </c>
-      <c r="P16" s="4">
-        <f t="shared" si="2"/>
+      <c r="P16" s="12">
+        <f t="shared" si="7"/>
         <v>5014</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="12">
         <f>+Q13-Q14+Q15</f>
         <v>5879</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4">
+      <c r="C17" s="12">
+        <v>261</v>
+      </c>
+      <c r="D17" s="12">
+        <v>285</v>
+      </c>
+      <c r="E17" s="12">
+        <v>326</v>
+      </c>
+      <c r="F17" s="12">
+        <f>+Q17-SUM(C17:E17)</f>
+        <v>323</v>
+      </c>
+      <c r="G17" s="12">
+        <v>331</v>
+      </c>
+      <c r="H17" s="12">
+        <v>365</v>
+      </c>
+      <c r="I17" s="12">
+        <v>422</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12">
         <v>733</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="12">
         <v>976</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="12">
         <v>1195</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4">
+      <c r="C18" s="12">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12">
+        <f>+Q18-SUM(C18:E18)</f>
+        <v>161</v>
+      </c>
+      <c r="G18" s="12">
+        <v>18</v>
+      </c>
+      <c r="H18" s="12">
+        <v>39</v>
+      </c>
+      <c r="I18" s="12">
+        <v>50</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12">
         <v>94</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="12">
         <v>140</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="12">
         <v>178</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4">
-        <f t="shared" ref="L19:P19" si="3">+L16-L17-L18</f>
+      <c r="C19" s="12">
+        <f t="shared" ref="C19:I19" si="8">+C16-C17-C18</f>
+        <v>913</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="8"/>
+        <v>1138</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="8"/>
+        <v>1271</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="8"/>
+        <v>1184</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="8"/>
+        <v>1046</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="8"/>
+        <v>1292</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" ref="I19" si="9">+I16-I17-I18</f>
+        <v>964</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12">
+        <f t="shared" ref="L19:P19" si="10">+L16-L17-L18</f>
         <v>0</v>
       </c>
-      <c r="M19" s="4">
-        <f t="shared" si="3"/>
+      <c r="M19" s="12">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N19" s="4">
-        <f t="shared" si="3"/>
+      <c r="N19" s="12">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O19" s="4">
-        <f t="shared" si="3"/>
+      <c r="O19" s="12">
+        <f t="shared" si="10"/>
         <v>2913</v>
       </c>
-      <c r="P19" s="4">
-        <f t="shared" si="3"/>
+      <c r="P19" s="12">
+        <f t="shared" si="10"/>
         <v>3898</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="12">
         <f>+Q16-Q17-Q18</f>
         <v>4506</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4">
+      <c r="C20" s="12">
+        <v>153</v>
+      </c>
+      <c r="D20" s="12">
+        <v>221</v>
+      </c>
+      <c r="E20" s="12">
+        <v>74</v>
+      </c>
+      <c r="F20" s="12">
+        <f>+Q20-SUM(C20:E20)</f>
+        <v>193</v>
+      </c>
+      <c r="G20" s="12">
+        <v>190</v>
+      </c>
+      <c r="H20" s="12">
+        <v>246</v>
+      </c>
+      <c r="I20" s="12">
+        <v>173</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12">
         <v>551</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="12">
         <v>754</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="12">
         <v>641</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4">
+      <c r="C21" s="12">
+        <v>-8</v>
+      </c>
+      <c r="D21" s="12">
+        <v>-8</v>
+      </c>
+      <c r="E21" s="12">
+        <v>-626</v>
+      </c>
+      <c r="F21" s="12">
+        <f>+Q21-SUM(C21:E21)</f>
+        <v>-43</v>
+      </c>
+      <c r="G21" s="12">
+        <v>-8</v>
+      </c>
+      <c r="H21" s="12">
+        <v>-16</v>
+      </c>
+      <c r="I21" s="12">
+        <v>8</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12">
         <v>220</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="12">
         <v>-15</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="12">
         <v>-685</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4">
-        <f t="shared" ref="L22:P22" si="4">+L19-L20+L21</f>
+      <c r="C22" s="12">
+        <f t="shared" ref="C22:I22" si="11">+C19-C20+C21</f>
+        <v>752</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="11"/>
+        <v>909</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="11"/>
+        <v>571</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="11"/>
+        <v>948</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="11"/>
+        <v>848</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="11"/>
+        <v>1030</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" ref="I22" si="12">+I19-I20+I21</f>
+        <v>799</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12">
+        <f t="shared" ref="L22:P22" si="13">+L19-L20+L21</f>
         <v>0</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="4"/>
+      <c r="M22" s="12">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="4"/>
+      <c r="N22" s="12">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O22" s="4">
-        <f t="shared" si="4"/>
+      <c r="O22" s="12">
+        <f t="shared" si="13"/>
         <v>2582</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="4"/>
+      <c r="P22" s="12">
+        <f t="shared" si="13"/>
         <v>3129</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="12">
         <f>+Q19-Q20+Q21</f>
         <v>3180</v>
       </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4">
+      <c r="C23" s="12">
+        <v>17</v>
+      </c>
+      <c r="D23" s="12">
+        <v>15</v>
+      </c>
+      <c r="E23" s="12">
+        <v>7</v>
+      </c>
+      <c r="F23" s="12">
+        <f>+Q23-SUM(C23:E23)</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="12">
+        <v>-3</v>
+      </c>
+      <c r="H23" s="12">
+        <v>4</v>
+      </c>
+      <c r="I23" s="12">
+        <v>7</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12">
         <v>52</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="12">
         <v>61</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="12">
         <v>49</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4">
-        <f t="shared" ref="L24:P24" si="5">+L22-L23</f>
+      <c r="C24" s="12">
+        <f t="shared" ref="C24:I24" si="14">+C22-C23</f>
+        <v>735</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="14"/>
+        <v>894</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="14"/>
+        <v>564</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="14"/>
+        <v>938</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="14"/>
+        <v>851</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="14"/>
+        <v>1026</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="14"/>
+        <v>792</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12">
+        <f t="shared" ref="L24:P24" si="15">+L22-L23</f>
         <v>0</v>
       </c>
-      <c r="M24" s="4">
-        <f t="shared" si="5"/>
+      <c r="M24" s="12">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N24" s="4">
-        <f t="shared" si="5"/>
+      <c r="N24" s="12">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O24" s="4">
-        <f t="shared" si="5"/>
+      <c r="O24" s="12">
+        <f t="shared" si="15"/>
         <v>2530</v>
       </c>
-      <c r="P24" s="4">
-        <f t="shared" si="5"/>
+      <c r="P24" s="12">
+        <f t="shared" si="15"/>
         <v>3068</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="12">
         <f>+Q22-Q23</f>
         <v>3131</v>
       </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1507,34 +2144,58 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3">
+        <f>+C24/C27</f>
+        <v>1.2438652902352345</v>
+      </c>
+      <c r="D26" s="3">
+        <f>+D24/D27</f>
+        <v>1.5342371717865109</v>
+      </c>
+      <c r="E26" s="3">
+        <f>+E24/E27</f>
+        <v>0.98309220847132639</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ref="F26:I26" si="16">+F24/F27</f>
+        <v>1.620874373595991</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="16"/>
+        <v>1.5161232852307145</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="16"/>
+        <v>1.8627450980392157</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="16"/>
+        <v>1.4661236579044796</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="9" t="e">
-        <f t="shared" ref="L26:P26" si="6">+L24/L27</f>
+        <f t="shared" ref="L26:P26" si="17">+L24/L27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>3.9389693289739998</v>
       </c>
       <c r="P26" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>5.0155304888016996</v>
       </c>
       <c r="Q26" s="9">
@@ -1546,14 +2207,32 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>590.9</v>
+      </c>
+      <c r="D27" s="4">
+        <v>582.70000000000005</v>
+      </c>
+      <c r="E27" s="4">
+        <v>573.70000000000005</v>
+      </c>
+      <c r="F27" s="4">
+        <f>+Q27</f>
+        <v>578.70000000000005</v>
+      </c>
+      <c r="G27" s="4">
+        <v>561.29999999999995</v>
+      </c>
+      <c r="H27" s="4">
+        <v>550.79999999999995</v>
+      </c>
+      <c r="I27" s="4">
+        <v>540.20000000000005</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1573,7 +2252,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1594,15 +2273,30 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="G29" s="14">
+        <f t="shared" ref="G29:H31" si="18">+G8/C8-1</f>
+        <v>1.1249999999999982E-2</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="18"/>
+        <v>3.9613526570048352E-2</v>
+      </c>
+      <c r="I29" s="14">
+        <f>+I8/E8-1</f>
+        <v>8.4965777672880716E-3</v>
+      </c>
+      <c r="J29" s="14">
+        <f>+J8/F8-1</f>
+        <v>-1</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -1615,15 +2309,30 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="G30" s="14">
+        <f t="shared" si="18"/>
+        <v>0.22876557191392988</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="18"/>
+        <v>0.25336091003102368</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" ref="I30:J31" si="19">+I9/E9-1</f>
+        <v>1.2269938650306678E-2</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -1636,15 +2345,30 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="15">
+        <f t="shared" si="18"/>
+        <v>5.058365758754868E-2</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="18"/>
+        <v>8.0086156256119034E-2</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="19"/>
+        <v>9.2042186001917159E-3</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -1657,15 +2381,42 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="14">
+        <f t="shared" ref="C32:I32" si="20">+(C8-C11)/C8</f>
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="20"/>
+        <v>0.67560386473429956</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="20"/>
+        <v>0.68232239792305882</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="20"/>
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="20"/>
+        <v>0.6566131025957973</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="20"/>
+        <v>0.67193308550185871</v>
+      </c>
+      <c r="I32" s="14">
+        <f>+(I8-I11)/I8</f>
+        <v>0.65223496372571965</v>
+      </c>
+      <c r="J32" s="14" t="e">
+        <f>+(J8-J11)/J8</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -1678,15 +2429,42 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="14">
+        <f t="shared" ref="C33:I33" si="21">+(C9-C12)/C9</f>
+        <v>0.26274065685164211</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="21"/>
+        <v>0.3391933815925543</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="21"/>
+        <v>0.32413087934560325</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="21"/>
+        <v>0.29465186680121092</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="21"/>
+        <v>0.36958525345622117</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="21"/>
+        <v>0.4273927392739274</v>
+      </c>
+      <c r="I33" s="14">
+        <f>+(I9-I12)/I9</f>
+        <v>0.31414141414141417</v>
+      </c>
+      <c r="J33" s="14" t="e">
+        <f>+(J9-J12)/J9</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -1699,15 +2477,42 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="14">
+        <f t="shared" ref="C34:I34" si="22">+C13/C10</f>
+        <v>0.58939176735613352</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" si="22"/>
+        <v>0.61190522811826908</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="22"/>
+        <v>0.61514860977948227</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="22"/>
+        <v>0.61550180917920394</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="22"/>
+        <v>0.59590643274853805</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="22"/>
+        <v>0.6182015953589558</v>
+      </c>
+      <c r="I34" s="14">
+        <f>+I13/I10</f>
+        <v>0.58863765912977384</v>
+      </c>
+      <c r="J34" s="14" t="e">
+        <f>+J13/J10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -1720,15 +2525,42 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="14">
+        <f t="shared" ref="C35:I35" si="23">+C16/C10</f>
+        <v>0.24185951259471636</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" si="23"/>
+        <v>0.27961621304092421</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="23"/>
+        <v>0.30719079578139979</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="23"/>
+        <v>0.3176537802323367</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="23"/>
+        <v>0.27192982456140352</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="23"/>
+        <v>0.30746918056562728</v>
+      </c>
+      <c r="I35" s="14">
+        <f>+I16/I10</f>
+        <v>0.27284818544556338</v>
+      </c>
+      <c r="J35" s="14" t="e">
+        <f>+J16/J10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -1741,15 +2573,42 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="14">
+        <f t="shared" ref="C36:I36" si="24">+C20/C19</f>
+        <v>0.16757940854326397</v>
+      </c>
+      <c r="D36" s="14">
+        <f t="shared" si="24"/>
+        <v>0.19420035149384884</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="24"/>
+        <v>5.8221872541306056E-2</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="24"/>
+        <v>0.16300675675675674</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="24"/>
+        <v>0.18164435946462715</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="24"/>
+        <v>0.19040247678018576</v>
+      </c>
+      <c r="I36" s="14">
+        <f>+I20/I19</f>
+        <v>0.17946058091286307</v>
+      </c>
+      <c r="J36" s="14" t="e">
+        <f>+J20/J19</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -1762,7 +2621,7 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1783,7 +2642,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1804,7 +2663,7 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1825,7 +2684,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1846,7 +2705,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1867,7 +2726,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1888,7 +2747,7 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1909,7 +2768,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1930,7 +2789,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1951,7 +2810,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1972,7 +2831,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1993,7 +2852,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
